--- a/Literature_legacy.xlsx
+++ b/Literature_legacy.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/DEMENTpy/project_drought_legacy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/DEMENTpy/microbiome-drought-legacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D8CD8A-1E3B-CE40-9B90-1D31DCD86A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69F143-3E98-ED4F-A314-53B86312DD78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-600" yWindow="800" windowWidth="40960" windowHeight="20640" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20640" xr2:uid="{6FE65769-796D-3A4F-9A3F-40C9EB0137CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="systems" sheetId="4" r:id="rId1"/>
+    <sheet name="vegetation" sheetId="1" r:id="rId2"/>
+    <sheet name="microbiome" sheetId="2" r:id="rId3"/>
+    <sheet name="miscellaneous" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Herzschuh</t>
   </si>
@@ -70,6 +73,18 @@
   </si>
   <si>
     <t>Moncrieff et al.</t>
+  </si>
+  <si>
+    <t>Glassman et al.</t>
+  </si>
+  <si>
+    <t>Decomposition responses to climate depend on microbial community composition</t>
+  </si>
+  <si>
+    <t>PNAS</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/115/47/11994</t>
   </si>
 </sst>
 </file>
@@ -482,11 +497,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77268A21-6CF0-1F4B-BA92-8ED3FAC65EF6}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4699A5-D920-F84E-B909-A09CF3175EEC}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,4 +610,77 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EADCE3-3763-1F47-8556-E4ED6BD8D785}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="80.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{A19AF357-2242-5E43-ABF9-81F6647BF7A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B271CBF5-38CD-8F44-A9B2-C27FAA7EE71A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>